--- a/data/lovs/AARC GL Journal FBDI Validation Report Lovs_1502.xlsx
+++ b/data/lovs/AARC GL Journal FBDI Validation Report Lovs_1502.xlsx
@@ -103,28 +103,28 @@
 ORDER BY PERIOD_YEAR,PERIOD_NUM,PERIOD_NAME)</t>
   </si>
   <si>
-    <t>Ledger_Name_AARC1</t>
-  </si>
-  <si>
-    <t>Source_AARC1</t>
-  </si>
-  <si>
-    <t>Period_Year_AARC1</t>
-  </si>
-  <si>
-    <t>Period_Name_AARC1</t>
-  </si>
-  <si>
-    <t>Status LOV_AARC1</t>
-  </si>
-  <si>
-    <t>Batch LOV_AARC1</t>
-  </si>
-  <si>
-    <t>From_Period_AARC1</t>
-  </si>
-  <si>
-    <t>To_Period_AARC1</t>
+    <t>Ledger_Name_AARC_12</t>
+  </si>
+  <si>
+    <t>Source_AARC_12</t>
+  </si>
+  <si>
+    <t>Period_Year_AARC_12</t>
+  </si>
+  <si>
+    <t>Period_Name_AARC_12</t>
+  </si>
+  <si>
+    <t>Status LOV_AARC_12</t>
+  </si>
+  <si>
+    <t>Batch LOV_AARC_12</t>
+  </si>
+  <si>
+    <t>From_Period_AARC_12</t>
+  </si>
+  <si>
+    <t>To_Period_AARC_12</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
